--- a/TestCase/Web Test.xlsx
+++ b/TestCase/Web Test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WebTest\TC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WebTest\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -678,7 +678,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,12 +755,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF1155CC"/>
         <bgColor rgb="FF1155CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1124,6 +1118,18 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1142,34 +1148,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1289,7 +1283,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1362,11 +1355,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="213263296"/>
-        <c:axId val="34103888"/>
+        <c:axId val="5294624"/>
+        <c:axId val="5296304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="213263296"/>
+        <c:axId val="5294624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1390,7 +1383,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1412,7 +1404,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34103888"/>
+        <c:crossAx val="5296304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1420,7 +1412,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34103888"/>
+        <c:axId val="5296304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1464,7 +1456,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1489,14 +1480,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213263296"/>
+        <c:crossAx val="5294624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1597,7 +1587,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1695,7 +1684,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1793,7 +1781,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1892,7 +1879,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1991,7 +1977,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2046,11 +2031,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="34107808"/>
-        <c:axId val="34108368"/>
+        <c:axId val="217889344"/>
+        <c:axId val="217889904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="34107808"/>
+        <c:axId val="217889344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2074,7 +2059,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2096,7 +2080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34108368"/>
+        <c:crossAx val="217889904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2104,7 +2088,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34108368"/>
+        <c:axId val="217889904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2148,7 +2132,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2173,14 +2156,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34107808"/>
+        <c:crossAx val="217889344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2308,23 +2290,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2373,23 +2342,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2438,23 +2394,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2728,10 +2671,10 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="89"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -2744,10 +2687,10 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="89"/>
+      <c r="D2" s="93"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2760,10 +2703,10 @@
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="92"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="3"/>
       <c r="F3" s="5"/>
       <c r="G3" s="3"/>
@@ -2776,10 +2719,10 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2792,10 +2735,10 @@
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="89"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -2817,17 +2760,17 @@
     </row>
     <row r="7" spans="1:27" ht="20.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
     </row>
     <row r="8" spans="1:27" ht="9" customHeight="1">
       <c r="B8" s="7"/>
@@ -2915,10 +2858,10 @@
     </row>
     <row r="13" spans="1:27" ht="21.75">
       <c r="A13" s="18"/>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="87"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -3003,8 +2946,8 @@
   <dimension ref="A1:Z992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3104,7 +3047,7 @@
       <c r="E3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="103" t="s">
+      <c r="F3" s="89" t="s">
         <v>127</v>
       </c>
       <c r="G3" s="35" t="s">
@@ -3188,55 +3131,55 @@
       <c r="Y4" s="38"/>
       <c r="Z4" s="38"/>
     </row>
-    <row r="5" spans="1:26" s="102" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A5" s="97"/>
-      <c r="B5" s="98">
+    <row r="5" spans="1:26" s="103" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A5" s="98"/>
+      <c r="B5" s="99">
         <v>2</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="99" t="s">
+      <c r="F5" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="99" t="s">
+      <c r="G5" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="99" t="s">
+      <c r="H5" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="100" t="s">
+      <c r="I5" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="J5" s="100" t="s">
+      <c r="J5" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="K5" s="100" t="s">
+      <c r="K5" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="L5" s="101" t="s">
+      <c r="L5" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="97"/>
-      <c r="Z5" s="97"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="98"/>
+      <c r="T5" s="98"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="98"/>
+      <c r="W5" s="98"/>
+      <c r="X5" s="98"/>
+      <c r="Y5" s="98"/>
+      <c r="Z5" s="98"/>
     </row>
     <row r="6" spans="1:26" ht="63" customHeight="1">
       <c r="A6" s="67"/>
@@ -31160,7 +31103,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31327,7 +31270,7 @@
       <c r="D4" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="87" t="s">
         <v>120</v>
       </c>
       <c r="F4" s="70"/>
@@ -31372,7 +31315,7 @@
       <c r="D5" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="87" t="s">
         <v>122</v>
       </c>
       <c r="F5" s="77"/>
@@ -31417,11 +31360,11 @@
       <c r="D6" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="96" t="s">
+      <c r="E6" s="88" t="s">
         <v>125</v>
       </c>
       <c r="F6" s="65"/>
-      <c r="G6" s="94"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="77" t="s">
         <v>40</v>
       </c>
